--- a/data/trans_dic/P15_5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,42 +686,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>80,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>77,92; 88,91</t>
+          <t>77,38; 88,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,03; 90,32</t>
+          <t>77,97; 89,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,89; 61,16</t>
+          <t>42,3; 59,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,11; 40,77</t>
+          <t>21,77; 39,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 33,2</t>
+          <t>16,98; 34,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,15; 86,08</t>
+          <t>73,64; 85,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,5; 91,7</t>
+          <t>80,78; 91,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,26; 63,64</t>
+          <t>49,01; 64,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,29; 44,05</t>
+          <t>30,22; 45,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,51; 44,26</t>
+          <t>26,42; 45,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>78,02; 85,86</t>
+          <t>77,57; 86,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>81,74; 89,76</t>
+          <t>81,34; 89,47</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>48,54; 60,37</t>
+          <t>47,78; 59,35</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>28,36; 40,08</t>
+          <t>27,78; 39,4</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 35,82</t>
+          <t>23,56; 35,8</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>52,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>92,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>53,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>53,78%</t>
+          <t>53,16%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,92; 87,55</t>
+          <t>75,57; 87,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,79; 93,62</t>
+          <t>84,58; 93,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,03; 61,7</t>
+          <t>43,96; 60,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,41; 50,14</t>
+          <t>29,36; 49,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 34,14</t>
+          <t>16,66; 32,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,17; 88,89</t>
+          <t>79,21; 89,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,42; 95,18</t>
+          <t>87,48; 95,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,28; 59,94</t>
+          <t>46,7; 60,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,41; 44,68</t>
+          <t>30,93; 44,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 35,67</t>
+          <t>21,4; 34,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>79,73; 87,04</t>
+          <t>79,61; 86,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 93,3</t>
+          <t>87,18; 93,45</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>48,13; 58,67</t>
+          <t>47,61; 58,34</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>32,18; 43,78</t>
+          <t>31,97; 44,34</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20,46; 32,05</t>
+          <t>21,14; 31,81</t>
         </is>
       </c>
     </row>
@@ -1020,27 +1021,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,87%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,22%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1050,7 +1051,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>81,29%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1060,7 +1061,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,22 +1076,22 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>84,42%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>28,1%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>72,72; 83,83</t>
+          <t>72,62; 83,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,31; 91,79</t>
+          <t>83,33; 91,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 66,7</t>
+          <t>53,56; 66,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,61; 48,68</t>
+          <t>32,58; 47,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,31; 37,86</t>
+          <t>23,39; 37,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,49; 79,26</t>
+          <t>69,99; 79,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,31; 86,38</t>
+          <t>77,44; 86,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,88; 57,48</t>
+          <t>47,27; 57,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,81; 36,78</t>
+          <t>27,38; 36,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,89</t>
+          <t>20,09; 31,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,91; 80,35</t>
+          <t>72,8; 80,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 87,53</t>
+          <t>82,12; 88,23</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>52,24; 60,51</t>
+          <t>52,1; 60,36</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>31,84; 40,54</t>
+          <t>31,12; 40,99</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>24,05; 32,63</t>
+          <t>23,83; 32,59</t>
         </is>
       </c>
     </row>
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,9%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>58,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,22 +1246,22 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>55,33%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>23,24%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,37; 81,59</t>
+          <t>71,31; 80,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,4; 89,75</t>
+          <t>81,22; 89,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,3; 59,22</t>
+          <t>46,55; 58,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,99; 44,89</t>
+          <t>32,95; 45,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 30,81</t>
+          <t>17,5; 31,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,76; 81,48</t>
+          <t>72,13; 81,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 89,99</t>
+          <t>82,08; 90,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,52; 62,6</t>
+          <t>52,94; 63,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 40,13</t>
+          <t>30,71; 40,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 29,1</t>
+          <t>17,64; 29,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,53; 80,24</t>
+          <t>73,48; 80,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,17; 88,85</t>
+          <t>83,04; 89,01</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>51,33; 59,36</t>
+          <t>51,24; 59,01</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 40,71</t>
+          <t>33,54; 41,27</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,97</t>
+          <t>19,25; 28,25</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1366,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1390,22 +1391,22 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1415,17 +1416,17 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>88,31%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>58,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,81; 87,68</t>
+          <t>78,53; 87,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,76; 91,38</t>
+          <t>82,19; 91,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,52; 65,57</t>
+          <t>53,21; 65,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,75; 50,58</t>
+          <t>36,77; 50,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 37,76</t>
+          <t>23,78; 38,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,84; 83,63</t>
+          <t>73,4; 83,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,41; 92,77</t>
+          <t>83,83; 92,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>51,82; 63,94</t>
+          <t>52,03; 64,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,1; 50,04</t>
+          <t>37,84; 51,3</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,55; 35,18</t>
+          <t>22,42; 35,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,21; 84,58</t>
+          <t>77,29; 84,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>84,15; 90,91</t>
+          <t>84,79; 91,24</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>54,85; 63,27</t>
+          <t>54,4; 62,82</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>39,6; 48,41</t>
+          <t>38,97; 48,06</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>25,38; 34,32</t>
+          <t>25,13; 34,82</t>
         </is>
       </c>
     </row>
@@ -1530,27 +1531,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>63,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,63%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1560,22 +1561,22 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>74,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>62,68%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1585,22 +1586,22 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>75,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>63,33%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>45,85%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 87,95</t>
+          <t>78,32; 87,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,89; 93,5</t>
+          <t>78,94; 92,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,43; 82,87</t>
+          <t>68,95; 82,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,41; 70,35</t>
+          <t>56,13; 70,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,99; 54,89</t>
+          <t>38,26; 55,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,39; 90,28</t>
+          <t>82,88; 90,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,1; 97,1</t>
+          <t>89,79; 96,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>68,49; 79,87</t>
+          <t>68,65; 79,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>56,57; 70,97</t>
+          <t>56,86; 69,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36,35; 55,18</t>
+          <t>36,3; 55,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82,36; 88,41</t>
+          <t>82,34; 88,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>88,19; 94,52</t>
+          <t>87,16; 94,1</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>70,99; 79,27</t>
+          <t>70,27; 78,98</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>58,67; 68,39</t>
+          <t>57,85; 67,66</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>39,24; 52,38</t>
+          <t>38,75; 52,03</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,0%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1730,17 +1731,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>88,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1755,17 +1756,17 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>87,86%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>59,11%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,74; 83,04</t>
+          <t>78,54; 83,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,13; 89,41</t>
+          <t>85,29; 89,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,18; 62,02</t>
+          <t>55,43; 61,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,19; 45,59</t>
+          <t>38,91; 45,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,53; 32,84</t>
+          <t>26,81; 33,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,5; 82,35</t>
+          <t>78,51; 82,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,33; 90,0</t>
+          <t>86,55; 90,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,94; 61,8</t>
+          <t>56,79; 61,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,36; 45,01</t>
+          <t>39,17; 44,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,45; 34,73</t>
+          <t>28,08; 34,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>79,31; 82,22</t>
+          <t>79,4; 82,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,33; 89,1</t>
+          <t>86,52; 89,07</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>57,21; 61,02</t>
+          <t>56,97; 60,72</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>39,9; 44,17</t>
+          <t>39,88; 43,92</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>28,43; 32,74</t>
+          <t>28,28; 32,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>429198</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>424595</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>267701</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>155694</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10244</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>373115</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>408430</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>292010</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>193893</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13174</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>802313</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>833025</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>559710</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>349587</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23418</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>396934; 454779</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>391454; 449113</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>221742; 312148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>111055; 200488</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7143; 14514</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>340863; 397954</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>378697; 428869</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252370; 331384</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>155325; 234940</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9879; 16861</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>756996; 839950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>789700; 868660</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>496490; 616717</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>284447; 403477</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>18724; 28450</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>462128</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>513924</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>298776</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>224285</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11983</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>440196</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>477804</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>271913</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>192228</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13257</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>902324</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>991728</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>570690</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>416513</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25240</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>425775; 492086</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>484892; 537104</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>248613; 339896</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>174527; 295603</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8311; 16318</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>410984; 463908</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>454079; 495884</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>237221; 307147</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>160041; 230093</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10102; 16213</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>861563; 939396</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>952348; 1020851</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>511097; 626254</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>355438; 492909</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20522; 30884</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>533012</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>604141</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>408315</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>269518</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>18226</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>517139</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>587247</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>377506</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>227955</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13838</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1050150</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1191388</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>785821</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>497473</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>32065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>490813; 564050</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>571962; 628202</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>364580; 450979</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>221563; 324219</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14085; 22298</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>485876; 548415</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>551732; 615740</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>339606; 414592</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>195430; 262487</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10833; 16881</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>997465; 1100787</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1148703; 1234250</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>728917; 844499</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>433768; 571348</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27195; 37190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>488767</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>555685</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>339532</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>247311</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13719</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>542838</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>592663</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>390772</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>235284</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12004</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1031605</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1148349</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>730305</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>482595</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>25724</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>455309; 516800</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>525717; 579126</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>300685; 379502</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>210561; 290330</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10198; 18335</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>507226; 572531</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>562770; 617593</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>356477; 425482</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>202645; 265530</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9250; 15280</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>985959; 1074917</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1106848; 1186371</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>675974; 778575</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>435705; 536106</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>21313; 31276</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>427122</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>433754</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>298344</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>213916</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13729</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>396851</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>453247</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>292891</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>227053</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13877</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>823975</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>887001</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>591235</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>440968</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>27607</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>402014; 448228</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>407079; 452221</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>268124; 330146</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>181462; 247845</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10579; 17257</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>368792; 420681</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>426727; 473029</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>261760; 322146</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>194907; 264263</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10935; 17153</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>783965; 854916</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>851581; 916385</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>547813; 632568</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>393060; 484767</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>23434; 32470</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>457763</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>480690</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>403540</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>335796</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21834</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>634945</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>674750</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>516172</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>434178</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28861</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1092708</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1155440</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>919712</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>769974</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>50695</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>428318; 480961</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>430365; 505870</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>364917; 436063</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>298848; 375122</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17918; 25924</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>605941; 660622</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>644452; 694103</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>477028; 551304</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>393827; 480581</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23129; 35095</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1052209; 1130237</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1100774; 1188358</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>860148; 966821</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>708670; 828871</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>42845; 57521</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1078.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>767.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1278.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1186.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>950.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>657.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>316.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2356.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2182.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1717.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2797990</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3012790</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2016208</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1446520</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>89735</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2905085</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3194142</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2141265</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1510591</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>95013</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5703075</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6206932</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>4157472</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2957111</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>184748</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2709071; 2867175</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2942085; 3077128</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1911997; 2116316</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1342184; 1564002</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>80903; 99809</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2836519; 2979490</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3126751; 3252959</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2051555; 2225762</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1415184; 1608091</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>85209; 104278</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5607614; 5805528</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>6110425; 6290128</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4023392; 4288250</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2816644; 3101374</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>171171; 198282</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>